--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Sunday Football\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\To upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB75BB7-02E6-41B0-B934-F4FB5401A223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117B129-F7A9-4357-81B7-4DEFF70FB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="4520" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{9AEB14A9-7B19-4E94-A722-500EE7CF5D0C}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{9AEB14A9-7B19-4E94-A722-500EE7CF5D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Division 1" sheetId="1" r:id="rId1"/>
@@ -502,9 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9334F8-A37E-4167-91DB-2E414628F0C1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -925,9 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C16EAE8-AC14-48B3-BC9B-53BEDD081B98}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:R8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1184,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4FF92-22AF-4630-9043-77F255AC3847}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\To upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Desktop\Sunday Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D117B129-F7A9-4357-81B7-4DEFF70FB792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE4562C-D123-4C99-B8F0-5BE544C92E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15460" xr2:uid="{9AEB14A9-7B19-4E94-A722-500EE7CF5D0C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{9AEB14A9-7B19-4E94-A722-500EE7CF5D0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Division 1" sheetId="1" r:id="rId1"/>
@@ -502,7 +502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9334F8-A37E-4167-91DB-2E414628F0C1}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -515,12 +517,14 @@
     <col min="7" max="7" width="3.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.90625" customWidth="1"/>
+    <col min="15" max="15" width="7.26953125" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="17" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -557,25 +561,25 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>45929</v>
+        <v>45971</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -586,22 +590,22 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -612,22 +616,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -635,25 +639,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>-2</v>
+        <v>-12</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -661,10 +665,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -673,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -740,10 +744,10 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -752,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -763,25 +767,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -789,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -818,22 +822,22 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -841,25 +845,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -867,25 +871,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -896,7 +900,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -905,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>-9</v>
+        <v>-16</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -971,22 +975,22 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -994,25 +998,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1020,25 +1024,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1049,22 +1053,22 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1072,25 +1076,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1098,25 +1102,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1124,25 +1128,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>-5</v>
+        <v>-31</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1150,10 +1154,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1162,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1180,7 +1184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D4FF92-22AF-4630-9043-77F255AC3847}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1221,10 +1225,10 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1233,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1244,25 +1248,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1270,25 +1274,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1296,25 +1300,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1322,25 +1326,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1348,25 +1352,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1374,25 +1378,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>-2</v>
+        <v>-19</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
